--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H2">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>13.20010777570756</v>
+        <v>0.9223625541223331</v>
       </c>
       <c r="R2">
-        <v>118.800969981368</v>
+        <v>8.301262987101</v>
       </c>
       <c r="S2">
-        <v>0.06266193574592338</v>
+        <v>0.01075768744420563</v>
       </c>
       <c r="T2">
-        <v>0.06266193574592338</v>
+        <v>0.01075768744420563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H3">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>24.45579484745133</v>
+        <v>1.744283679994333</v>
       </c>
       <c r="R3">
-        <v>220.102153627062</v>
+        <v>15.698553119949</v>
       </c>
       <c r="S3">
-        <v>0.1160935555516202</v>
+        <v>0.02034390767442094</v>
       </c>
       <c r="T3">
-        <v>0.1160935555516203</v>
+        <v>0.02034390767442094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H4">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>11.91582627850956</v>
+        <v>0.4604631803107777</v>
       </c>
       <c r="R4">
-        <v>107.242436506586</v>
+        <v>4.144168622796999</v>
       </c>
       <c r="S4">
-        <v>0.05656535183732831</v>
+        <v>0.005370468425034588</v>
       </c>
       <c r="T4">
-        <v>0.05656535183732832</v>
+        <v>0.005370468425034587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>21.15188740283467</v>
+        <v>20.722300975138</v>
       </c>
       <c r="R5">
-        <v>190.366986625512</v>
+        <v>186.500708776242</v>
       </c>
       <c r="S5">
-        <v>0.1004096505772951</v>
+        <v>0.2416880824345843</v>
       </c>
       <c r="T5">
-        <v>0.1004096505772951</v>
+        <v>0.2416880824345842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.340694</v>
       </c>
       <c r="I6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
-        <v>39.188029957762</v>
+        <v>39.18802995776201</v>
       </c>
       <c r="R6">
-        <v>352.692269619858</v>
+        <v>352.6922696198581</v>
       </c>
       <c r="S6">
-        <v>0.1860286186255004</v>
+        <v>0.4570573425337225</v>
       </c>
       <c r="T6">
-        <v>0.1860286186255004</v>
+        <v>0.4570573425337225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.340694</v>
       </c>
       <c r="I7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>19.09395135535267</v>
+        <v>10.34501733371933</v>
       </c>
       <c r="R7">
-        <v>171.845562198174</v>
+        <v>93.10515600347399</v>
       </c>
       <c r="S7">
-        <v>0.09064046849426291</v>
+        <v>0.1206558772184087</v>
       </c>
       <c r="T7">
-        <v>0.09064046849426291</v>
+        <v>0.1206558772184087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H8">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I8">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J8">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>21.74209151543599</v>
+        <v>3.644899618658666</v>
       </c>
       <c r="R8">
-        <v>195.678823638924</v>
+        <v>32.804096567928</v>
       </c>
       <c r="S8">
-        <v>0.103211395290991</v>
+        <v>0.0425111477995167</v>
       </c>
       <c r="T8">
-        <v>0.103211395290991</v>
+        <v>0.0425111477995167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H9">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I9">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J9">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>40.28149911279899</v>
+        <v>6.892884898274667</v>
       </c>
       <c r="R9">
-        <v>362.5334920151909</v>
+        <v>62.035964084472</v>
       </c>
       <c r="S9">
-        <v>0.1912194015416197</v>
+        <v>0.08039300922735557</v>
       </c>
       <c r="T9">
-        <v>0.1912194015416198</v>
+        <v>0.08039300922735557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H10">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I10">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J10">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>19.626732586697</v>
+        <v>1.819612106779555</v>
       </c>
       <c r="R10">
-        <v>176.640593280273</v>
+        <v>16.376508961016</v>
       </c>
       <c r="S10">
-        <v>0.09316962233545893</v>
+        <v>0.02122247724275108</v>
       </c>
       <c r="T10">
-        <v>0.09316962233545895</v>
+        <v>0.02122247724275108</v>
       </c>
     </row>
   </sheetData>
